--- a/static/BKM_MARKA_CIROLAR.xlsx
+++ b/static/BKM_MARKA_CIROLAR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\İş Analitiği ve Optimizasyon Grubu\Dijital CRM\Kullanıcılar\TAYIPG\İl-İlçe Geojson\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\EO\İl-İlçe Geojson\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC984FB-D54C-419A-8B9C-E9254D2D5779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CBECE5-E7C1-46A7-B423-A6AB5107A125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D90F433D-4275-4F4E-80E9-0EBB1245BDBA}"/>
   </bookViews>
@@ -3238,10 +3238,10 @@
         <v>2154.0270386098227</v>
       </c>
       <c r="M55">
+        <v>29.092644</v>
+      </c>
+      <c r="N55">
         <v>41.134453999999998</v>
-      </c>
-      <c r="N55">
-        <v>29.092644</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3590,10 +3590,10 @@
         <v>6831.2936353467567</v>
       </c>
       <c r="M63">
+        <v>32.903329999999997</v>
+      </c>
+      <c r="N63">
         <v>39.963610000000003</v>
-      </c>
-      <c r="N63">
-        <v>32.903329999999997</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -4293,11 +4293,11 @@
       <c r="L79" s="3">
         <v>7573.8453297682718</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="4">
+        <v>36.173499999999997</v>
+      </c>
+      <c r="N79">
         <v>36.587200000000003</v>
-      </c>
-      <c r="N79" s="1">
-        <v>36.173499999999997</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -4382,10 +4382,10 @@
         <v>11051.632899931927</v>
       </c>
       <c r="M81">
+        <v>34.593499999999999</v>
+      </c>
+      <c r="N81">
         <v>36.800699999999999</v>
-      </c>
-      <c r="N81">
-        <v>34.593499999999999</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -5262,10 +5262,10 @@
         <v>5613.9038381652963</v>
       </c>
       <c r="M101">
+        <v>29.304210999999999</v>
+      </c>
+      <c r="N101">
         <v>40.817515999999998</v>
-      </c>
-      <c r="N101">
-        <v>29.304210999999999</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -5438,10 +5438,10 @@
         <v>5851.4024348253815</v>
       </c>
       <c r="M105">
+        <v>27.166668000000001</v>
+      </c>
+      <c r="N105">
         <v>38.462223000000002</v>
-      </c>
-      <c r="N105">
-        <v>27.166668000000001</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -5966,10 +5966,10 @@
         <v>7451.3779595222304</v>
       </c>
       <c r="M117">
+        <v>29.126100000000001</v>
+      </c>
+      <c r="N117">
         <v>36.659100000000002</v>
-      </c>
-      <c r="N117">
-        <v>29.126100000000001</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -6054,10 +6054,10 @@
         <v>5103.8623291366912</v>
       </c>
       <c r="M119">
+        <v>30.367840000000001</v>
+      </c>
+      <c r="N119">
         <v>40.763710000000003</v>
-      </c>
-      <c r="N119">
-        <v>30.367840000000001</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
